--- a/Ejercicios/Ejercicios-AE.xlsx
+++ b/Ejercicios/Ejercicios-AE.xlsx
@@ -1,55 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\metodos\Metodos\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526EAEE1-AE37-4DF5-901B-538DB7925679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9729853-80FC-4A46-9E0F-701A9826597E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EDF44CBA-5F3B-48B1-A849-2E0DE52960DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDF44CBA-5F3B-48B1-A849-2E0DE52960DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ejercicio 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="SA" sheetId="1" r:id="rId1"/>
+    <sheet name="Answer Report 1" sheetId="7" r:id="rId2"/>
+    <sheet name="Population Report 1" sheetId="8" r:id="rId3"/>
+    <sheet name="Answer Report 2" sheetId="9" r:id="rId4"/>
+    <sheet name="Population Report 2" sheetId="10" r:id="rId5"/>
+    <sheet name="Answer Report 3" sheetId="11" r:id="rId6"/>
+    <sheet name="Population Report 3" sheetId="12" r:id="rId7"/>
+    <sheet name="AE" sheetId="5" r:id="rId8"/>
+    <sheet name="GRG" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$E$4</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1!$E$5</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet1!$F$4</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Sheet1!$F$5</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">15</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">AE!$F$3</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">GRG!$F$3</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.1</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">AE!$F$3</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">GRG!$E$4</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">AE!$F$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">GRG!$E$5</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.35</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">AE!$E$3</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">GRG!$E$3</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">AE!$F$4</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">GRG!$F$4</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">AE!$F$5</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">GRG!$F$5</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">15</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="79">
   <si>
     <t>r1</t>
   </si>
@@ -131,13 +171,184 @@
     <t>Con semilla decimal y 200 individuos</t>
   </si>
   <si>
-    <t>r1: x &gt;= -15</t>
+    <t>z= (1/sqrt(2*3.1416))*(2.7182^(-(x^2)/2))</t>
   </si>
   <si>
-    <t>r2: x &lt;= 15</t>
+    <t xml:space="preserve">id </t>
   </si>
   <si>
-    <t>z= (1/sqrt(2*3.1416))*(2.7182^(-(x^2)/2))</t>
+    <t xml:space="preserve">parametros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x </t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>r1: x &lt;= 15</t>
+  </si>
+  <si>
+    <t>r2: x &gt;= -15</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Answer Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [Ejercicios-AE.xlsx]AE</t>
+  </si>
+  <si>
+    <t>Report Created: 11/7/2023 10:41:12 PM</t>
+  </si>
+  <si>
+    <t>Result: Solver has converged to the current solution.  All Constraints are satisfied.</t>
+  </si>
+  <si>
+    <t>Solver Engine</t>
+  </si>
+  <si>
+    <t>Engine: Evolutionary</t>
+  </si>
+  <si>
+    <t>Solution Time: 3.281 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 0 Subproblems: 3519</t>
+  </si>
+  <si>
+    <t>Solver Options</t>
+  </si>
+  <si>
+    <t>Max Time Unlimited,  Iterations Unlimited, Precision 0.000001, Use Automatic Scaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Convergence 0.0001, Population Size 15, Random Seed 0, Mutation Rate 0.075, Time w/o Improve 30 sec, Require Bounds</t>
+  </si>
+  <si>
+    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 1%</t>
+  </si>
+  <si>
+    <t>Objective Cell (Max)</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Original Value</t>
+  </si>
+  <si>
+    <t>Final Value</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Cell Value</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>$E$3</t>
+  </si>
+  <si>
+    <t>s.a. Z</t>
+  </si>
+  <si>
+    <t>$F$3</t>
+  </si>
+  <si>
+    <t>s.a. x</t>
+  </si>
+  <si>
+    <t>Contin</t>
+  </si>
+  <si>
+    <t>$F$3&lt;=$F$4</t>
+  </si>
+  <si>
+    <t>Not Binding</t>
+  </si>
+  <si>
+    <t>$F$3&gt;=$F$5</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Population Report</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 individuos, mutacion de 7.5%, 0.0001 de convergencia y 3512 poblaciones </t>
+  </si>
+  <si>
+    <t>Report Created: 11/7/2023 10:42:44 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.344 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 0 Subproblems: 307</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Convergence 0.01, Population Size 15, Random Seed 0, Mutation Rate 0.2, Time w/o Improve 30 sec, Require Bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 individuos, mutacion de 20%, 0.01 de convergencia y 307 poblaciones </t>
+  </si>
+  <si>
+    <t>Report Created: 11/7/2023 10:43:58 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.078 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 19 Subproblems: 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Convergence .1, Population Size 15, Random Seed 0, Mutation Rate 0.35, Time w/o Improve 30 sec, Require Bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 individuos, mutacion de 35%, 0.1 de convergencia y 43 poblaciones </t>
   </si>
 </sst>
 </file>
@@ -147,10 +358,26 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,7 +391,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -187,11 +414,237 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,11 +660,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -530,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9138194-93B7-4896-B4C2-1BE58A87FC29}">
   <dimension ref="A1:W751"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,9 +1026,9 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="22" max="23" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -568,38 +1055,45 @@
       </c>
       <c r="M1">
         <f ca="1">MAX(J2:J201)</f>
-        <v>0.397332530133718</v>
-      </c>
-      <c r="P1" t="s">
+        <v>0.39752656144352849</v>
+      </c>
+      <c r="P1" s="31" t="s">
         <v>18</v>
       </c>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="4">
-        <f ca="1">(RAND()*24)-12</f>
-        <v>1.1397148266335453</v>
+        <f ca="1">(RAND()*30)-15</f>
+        <v>-13.804161421220778</v>
       </c>
       <c r="F2">
         <f ca="1">IF(D2&gt;=-12,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f ca="1">IF(D2&lt;=12,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="1" t="str">
         <f ca="1">IF(F2*G2=1,(1/SQRT(2*3.1416))*(2.7182^(-(D2^2)/2)),"X")</f>
-        <v>0.20837934339496178</v>
+        <v>X</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2">
         <f ca="1">INDEX(D2:D201, MATCH(M1,J2:J201,0))</f>
-        <v>-8.9912855196143227E-2</v>
+        <v>8.4308130609224818E-2</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
@@ -632,8 +1126,8 @@
         <v>2</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D66" ca="1" si="0">(RAND()*24)-12</f>
-        <v>10.055656506500803</v>
+        <f t="shared" ref="D3:D66" ca="1" si="0">(RAND()*30)-15</f>
+        <v>-0.78195135669754379</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="1">IF(D3&gt;=-12,1,0)</f>
@@ -645,32 +1139,32 @@
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J66" ca="1" si="3">IF(F3*G3=1,(1/SQRT(2*3.1416))*(2.7182^(-(D3^2)/2)),"X")</f>
-        <v>4.410224178441207E-23</v>
+        <v>0.29385922254805819</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="5">
-        <v>0.39855116709705635</v>
+        <v>0.39886184033687594</v>
       </c>
       <c r="R3" s="6">
-        <v>0.39738121247450875</v>
+        <v>0.39860928046730199</v>
       </c>
       <c r="S3" s="6">
-        <v>0.3989362816616045</v>
+        <v>0.39703670644050865</v>
       </c>
       <c r="T3" s="6">
-        <v>0.39839801946337511</v>
+        <v>0.39891266246950374</v>
       </c>
       <c r="U3" s="6">
-        <v>0.39670262032618397</v>
+        <v>0.39611962779899329</v>
       </c>
       <c r="V3" s="2">
-        <v>0.39861438747517802</v>
+        <v>0.39330677632357447</v>
       </c>
       <c r="W3" s="6">
         <f>MAX(Q3:V3)</f>
-        <v>0.3989362816616045</v>
+        <v>0.39891266246950374</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -682,7 +1176,7 @@
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.559104632368319</v>
+        <v>10.641502698811806</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
@@ -694,38 +1188,38 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4596535133900863E-25</v>
+        <v>1.0269592584930257E-25</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
       </c>
       <c r="M4">
         <f ca="1">MIN(J2:J201)</f>
-        <v>2.5426246239937761E-32</v>
+        <v>5.4447143442754809E-32</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Q4" s="5">
-        <v>-4.4265490545509323E-2</v>
+        <v>2.0024509496733955E-2</v>
       </c>
       <c r="R4" s="6">
-        <v>-8.8539727403912138E-2</v>
+        <v>4.0838988717675662E-2</v>
       </c>
       <c r="S4" s="6">
-        <v>-5.266483695518076E-3</v>
+        <v>9.7846662745229906E-2</v>
       </c>
       <c r="T4" s="6">
-        <v>5.2231468536433567E-2</v>
+        <v>-1.2089407376311812E-2</v>
       </c>
       <c r="U4" s="6">
-        <v>0.10610196228496704</v>
+        <v>0.1191598442934847</v>
       </c>
       <c r="V4" s="2">
-        <v>4.0524045490474947E-2</v>
+        <v>0.16867777639814996</v>
       </c>
       <c r="W4" s="6">
-        <v>6.0797083757883605</v>
+        <v>-1.2089407376311812E-2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -737,7 +1231,7 @@
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10576407070997718</v>
+        <v>3.8863829086590833</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
@@ -749,14 +1243,14 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39671681967636813</v>
+        <v>2.0951852077352788E-4</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
       <c r="M5">
         <f ca="1">INDEX(D5:D201, MATCH(M4,J5:J201,0))</f>
-        <v>-11.986054298531617</v>
+        <v>11.922355259916255</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="5"/>
@@ -773,44 +1267,44 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.942976346462325</v>
+        <v>-14.409818767136645</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9681285057758657E-27</v>
+        <v>X</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="Q6" s="5">
-        <v>4.4125761832516883E-32</v>
+        <v>4.8601113265611176E-32</v>
       </c>
       <c r="R6" s="6">
-        <v>2.2831706622474067E-32</v>
+        <v>5.0530182374216378E-32</v>
       </c>
       <c r="S6" s="6">
-        <v>2.4973940570312129E-32</v>
+        <v>8.6626106442870493E-32</v>
       </c>
       <c r="T6" s="6">
-        <v>3.9730039628259207E-32</v>
+        <v>1.5026075589704835E-31</v>
       </c>
       <c r="U6" s="6">
-        <v>2.9339922642253105E-32</v>
+        <v>2.4658784445362835E-32</v>
       </c>
       <c r="V6" s="2">
-        <v>4.1144376579966889E-32</v>
+        <v>3.6938660783720152E-32</v>
       </c>
       <c r="W6" s="6">
         <f>MIN(Q6:V6)</f>
-        <v>2.2831706622474067E-32</v>
+        <v>2.4658784445362835E-32</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -819,7 +1313,7 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5597299190560943</v>
+        <v>-3.6989622568123135</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
@@ -831,31 +1325,31 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0692391110104707E-4</v>
+        <v>4.2650151090876828E-4</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Q7" s="5">
-        <v>-11.939972395689082</v>
+        <v>11.931878715427295</v>
       </c>
       <c r="R7" s="6">
-        <v>11.995030955329987</v>
+        <v>11.92861595298125</v>
       </c>
       <c r="S7" s="6">
-        <v>-11.987551744792984</v>
+        <v>-11.883340662288223</v>
       </c>
       <c r="T7" s="6">
-        <v>-11.948758075809579</v>
+        <v>11.836900366234531</v>
       </c>
       <c r="U7" s="6">
-        <v>11.974103501695279</v>
+        <v>-11.988611137194496</v>
       </c>
       <c r="V7" s="2">
-        <v>-11.945830153670709</v>
+        <v>11.954853476070429</v>
       </c>
       <c r="W7" s="6">
-        <v>11.995030955329987</v>
+        <v>-11.988611137194496</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -864,7 +1358,7 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2315702416906973</v>
+        <v>-6.8574284981255857</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
@@ -876,7 +1370,7 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1542651096393326E-3</v>
+        <v>2.4547902372842998E-11</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="3"/>
@@ -891,7 +1385,7 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22268031266229471</v>
+        <v>7.7478104695544801</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
@@ -903,7 +1397,7 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38917264478956787</v>
+        <v>3.6835302420152459E-14</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="1"/>
@@ -919,7 +1413,7 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.763761182958454</v>
+        <v>1.0025295005860038</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
@@ -931,7 +1425,7 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5617163358169284E-31</v>
+        <v>0.24136202982474839</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -940,7 +1434,7 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5760391225830688E-2</v>
+        <v>-9.2971594825768022</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
@@ -952,7 +1446,7 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39711689703811537</v>
+        <v>6.790169906298141E-20</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -961,7 +1455,7 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.8394261307037105</v>
+        <v>12.278914863224635</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
@@ -969,11 +1463,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7895083037003796E-22</v>
+        <v>X</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -982,7 +1476,7 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2252718806322065</v>
+        <v>11.922355259916255</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
@@ -994,7 +1488,7 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3004580815028684E-5</v>
+        <v>5.4447143442754809E-32</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1003,7 +1497,7 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3371302899551836</v>
+        <v>6.8416096977255521</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
@@ -1015,7 +1509,7 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7.5981556282328783E-10</v>
+        <v>2.7357051529966441E-11</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="3"/>
@@ -1031,7 +1525,7 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4065208236566189</v>
+        <v>-4.1572948172065054</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
@@ -1043,7 +1537,7 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2053839918557577E-3</v>
+        <v>7.047661111375134E-5</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="1"/>
@@ -1060,7 +1554,7 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.97086673894712</v>
+        <v>-11.493781738735064</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
@@ -1072,7 +1566,7 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.049918809377637E-32</v>
+        <v>8.2242918673949062E-30</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="1"/>
@@ -1089,7 +1583,7 @@
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6782056982415163</v>
+        <v>7.4516644298727606</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
@@ -1101,7 +1595,7 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9.7579827349543916E-2</v>
+        <v>3.4968092183220275E-13</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="1"/>
@@ -1118,7 +1612,7 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.576428684814001</v>
+        <v>-1.2641977543994933</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
@@ -1130,7 +1624,7 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.256935425018456E-17</v>
+        <v>0.17942219341046553</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="1"/>
@@ -1147,19 +1641,19 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1755463291745478</v>
+        <v>-13.480257388939274</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19991290379383564</v>
+        <v>X</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="1"/>
@@ -1176,19 +1670,19 @@
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4859549666340577</v>
+        <v>-13.549533903768582</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9262990544505496E-10</v>
+        <v>X</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="1"/>
@@ -1205,7 +1699,7 @@
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9631762821157039</v>
+        <v>-8.6825066068992136</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
@@ -1217,7 +1711,7 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9467999735293587E-3</v>
+        <v>1.7043453492425287E-17</v>
       </c>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.25">
@@ -1226,7 +1720,7 @@
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2779898912183896</v>
+        <v>-11.444881774772835</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
@@ -1238,7 +1732,7 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1033387759807201E-9</v>
+        <v>1.4410040547446116E-29</v>
       </c>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.25">
@@ -1247,7 +1741,7 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5095002383050584</v>
+        <v>-10.216521601068205</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
@@ -1259,7 +1753,7 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5111789578201685E-10</v>
+        <v>8.6366672727277761E-24</v>
       </c>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.25">
@@ -1268,7 +1762,7 @@
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5979969462262176</v>
+        <v>-4.3277012598137716</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
@@ -1280,7 +1774,7 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4060503896822278E-10</v>
+        <v>3.4204378503053166E-5</v>
       </c>
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.25">
@@ -1289,7 +1783,7 @@
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0863691199769292</v>
+        <v>1.2738950566143323</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
@@ -1301,7 +1795,7 @@
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22112638329196324</v>
+        <v>0.17722776176563629</v>
       </c>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.25">
@@ -1310,7 +1804,7 @@
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5602645843874345</v>
+        <v>-11.207083515686968</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
@@ -1322,7 +1816,7 @@
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7209334102795542E-8</v>
+        <v>2.1296825173251159E-28</v>
       </c>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.25">
@@ -1331,7 +1825,7 @@
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.6711590702084127</v>
+        <v>12.430753379193288</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
@@ -1339,11 +1833,11 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31849128370023877</v>
+        <v>X</v>
       </c>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.25">
@@ -1352,7 +1846,7 @@
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2363578826261765</v>
+        <v>0.23853983249887278</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
@@ -1364,7 +1858,7 @@
       </c>
       <c r="J28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4364154582039102E-7</v>
+        <v>0.38775194074118069</v>
       </c>
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.25">
@@ -1373,7 +1867,7 @@
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.3740597702273796</v>
+        <v>5.5774855384016711</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
@@ -1385,7 +1879,7 @@
       </c>
       <c r="J29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3656167461513995E-16</v>
+        <v>7.0149024701490898E-8</v>
       </c>
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.25">
@@ -1394,7 +1888,7 @@
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.666028441388082</v>
+        <v>9.3744664101986075</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
@@ -1406,7 +1900,7 @@
       </c>
       <c r="J30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9082277645750281E-26</v>
+        <v>3.2995123172496237E-20</v>
       </c>
     </row>
     <row r="31" spans="3:23" x14ac:dyDescent="0.25">
@@ -1415,19 +1909,19 @@
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.9912855196143227E-2</v>
+        <v>-12.546143503156401</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0.397332530133718</v>
+        <v>X</v>
       </c>
     </row>
     <row r="32" spans="3:23" x14ac:dyDescent="0.25">
@@ -1436,7 +1930,7 @@
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7344335833968429</v>
+        <v>-4.9572411878641809</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
@@ -1448,7 +1942,7 @@
       </c>
       <c r="J32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6625884498367412E-11</v>
+        <v>1.8401013342276326E-6</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.25">
@@ -1457,7 +1951,7 @@
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3830884114804434</v>
+        <v>9.0076764632065363</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
@@ -1469,7 +1963,7 @@
       </c>
       <c r="J33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0432112140720593E-20</v>
+        <v>9.6049702839917915E-19</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.25">
@@ -1478,19 +1972,19 @@
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.8016161593369535</v>
+        <v>-13.958452161707298</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4933524785567828E-22</v>
+        <v>X</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.25">
@@ -1499,7 +1993,7 @@
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.02613894253453</v>
+        <v>10.264827668897713</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
@@ -1511,7 +2005,7 @@
       </c>
       <c r="J35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9316323265643958E-23</v>
+        <v>5.2663890835669243E-24</v>
       </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.25">
@@ -1520,19 +2014,19 @@
       </c>
       <c r="D36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.861649391977668</v>
+        <v>-12.823395388417676</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5150013022008675E-14</v>
+        <v>X</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.25">
@@ -1541,19 +2035,19 @@
       </c>
       <c r="D37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6870447623913449</v>
+        <v>-14.839005329166483</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6384806862152588E-17</v>
+        <v>X</v>
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.25">
@@ -1562,7 +2056,7 @@
       </c>
       <c r="D38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.4757656318115044</v>
+        <v>13.022610690549655</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
@@ -1570,11 +2064,11 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1260560774943527E-10</v>
+        <v>X</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.25">
@@ -1583,7 +2077,7 @@
       </c>
       <c r="D39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8776773841500241</v>
+        <v>3.4831574845505457</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
@@ -1595,7 +2089,7 @@
       </c>
       <c r="J39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2569841485217149E-8</v>
+        <v>9.2570946976015713E-4</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.25">
@@ -1604,7 +2098,7 @@
       </c>
       <c r="D40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.7291632334447202</v>
+        <v>-0.65929010790561549</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
@@ -1616,7 +2110,7 @@
       </c>
       <c r="J40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9759979003380224E-8</v>
+        <v>0.32101581691906417</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.25">
@@ -1625,7 +2119,7 @@
       </c>
       <c r="D41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0800072583049518</v>
+        <v>-7.7609423203817061</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="1"/>
@@ -1637,7 +2131,7 @@
       </c>
       <c r="J41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9374207828200784E-7</v>
+        <v>3.3269146686644192E-14</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.25">
@@ -1646,7 +2140,7 @@
       </c>
       <c r="D42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35504790424453603</v>
+        <v>6.6257735265975199</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="1"/>
@@ -1658,7 +2152,7 @@
       </c>
       <c r="J42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37457347057002544</v>
+        <v>1.1701531044743998E-10</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.25">
@@ -1667,7 +2161,7 @@
       </c>
       <c r="D43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8072556604306271</v>
+        <v>5.2677889753842884</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="1"/>
@@ -1679,7 +2173,7 @@
       </c>
       <c r="J43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3199568296260787E-14</v>
+        <v>3.7613325020233982E-7</v>
       </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.25">
@@ -1688,7 +2182,7 @@
       </c>
       <c r="D44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5985311411158065</v>
+        <v>-6.322228218465332</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="1"/>
@@ -1700,7 +2194,7 @@
       </c>
       <c r="J44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3636297423160434E-2</v>
+        <v>8.3497202105269658E-10</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.25">
@@ -1709,7 +2203,7 @@
       </c>
       <c r="D45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.1261293322898736</v>
+        <v>14.057576099629181</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="1"/>
@@ -1717,11 +2211,11 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3.750863709503912E-12</v>
+        <v>X</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.25">
@@ -1730,7 +2224,7 @@
       </c>
       <c r="D46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7011668313277895</v>
+        <v>-0.14002457947404068</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="1"/>
@@ -1742,7 +2236,7 @@
       </c>
       <c r="J46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4629352517534209E-21</v>
+        <v>0.39505003598181354</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.25">
@@ -1751,7 +2245,7 @@
       </c>
       <c r="D47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4201543320521175</v>
+        <v>-9.1316232374806869</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="1"/>
@@ -1763,7 +2257,7 @@
       </c>
       <c r="J47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4742592701653426E-10</v>
+        <v>3.1210225876826852E-19</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.25">
@@ -1772,19 +2266,19 @@
       </c>
       <c r="D48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87930783538603663</v>
+        <v>-12.606087985485114</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27103177897818809</v>
+        <v>X</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
@@ -1793,7 +2287,7 @@
       </c>
       <c r="D49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2420585855531883</v>
+        <v>14.136567704153077</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="1"/>
@@ -1801,11 +2295,11 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1316075907020694E-19</v>
+        <v>X</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.25">
@@ -1814,7 +2308,7 @@
       </c>
       <c r="D50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4985539327667894</v>
+        <v>7.9456814476994673</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="1"/>
@@ -1826,7 +2320,7 @@
       </c>
       <c r="J50" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6964747497480104E-10</v>
+        <v>7.7979441783657325E-15</v>
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.25">
@@ -1835,19 +2329,19 @@
       </c>
       <c r="D51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.75909825880239623</v>
+        <v>-13.546926045951345</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29907942290546224</v>
+        <v>X</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.25">
@@ -1856,19 +2350,19 @@
       </c>
       <c r="D52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6484060733148205</v>
+        <v>-12.037926001448426</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1354505639204578E-4</v>
+        <v>X</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
@@ -1877,7 +2371,7 @@
       </c>
       <c r="D53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.85185024232544</v>
+        <v>6.14238465681969</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="1"/>
@@ -1889,7 +2383,7 @@
       </c>
       <c r="J53" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0711345418463582E-26</v>
+        <v>2.5611320900867061E-9</v>
       </c>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.25">
@@ -1898,7 +2392,7 @@
       </c>
       <c r="D54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7055292337612045</v>
+        <v>-1.0019961284403127</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="1"/>
@@ -1910,7 +2404,7 @@
       </c>
       <c r="J54" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1625750823157532E-4</v>
+        <v>0.24149108752118206</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.25">
@@ -1919,7 +2413,7 @@
       </c>
       <c r="D55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1941751370668889</v>
+        <v>-2.2845773090206443</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="1"/>
@@ -1931,7 +2425,7 @@
       </c>
       <c r="J55" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8607894293511441E-9</v>
+        <v>2.9348674855104343E-2</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.25">
@@ -1940,7 +2434,7 @@
       </c>
       <c r="D56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0313783975376793</v>
+        <v>-1.2388529781304207</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="1"/>
@@ -1952,7 +2446,7 @@
       </c>
       <c r="J56" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0334769712987528E-9</v>
+        <v>0.18520444566492544</v>
       </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.25">
@@ -1961,7 +2455,7 @@
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92446207382928236</v>
+        <v>-10.834110940153636</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="1"/>
@@ -1973,7 +2467,7 @@
       </c>
       <c r="J57" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26021634397994087</v>
+        <v>1.2983049448109057E-26</v>
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.25">
@@ -1982,7 +2476,7 @@
       </c>
       <c r="D58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2205877629661757</v>
+        <v>13.878930576106917</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="1"/>
@@ -1990,11 +2484,11 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4063454768968672E-5</v>
+        <v>X</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.25">
@@ -2003,19 +2497,19 @@
       </c>
       <c r="D59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2284612936628339</v>
+        <v>-14.464022251760147</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18759393682843933</v>
+        <v>X</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.25">
@@ -2024,7 +2518,7 @@
       </c>
       <c r="D60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.832778117349761</v>
+        <v>8.1040167236340217</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="1"/>
@@ -2036,7 +2530,7 @@
       </c>
       <c r="J60" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.317186671037067E-26</v>
+        <v>2.188642935774216E-15</v>
       </c>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.25">
@@ -2045,7 +2539,7 @@
       </c>
       <c r="D61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1178167463914761</v>
+        <v>10.700843904264826</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="1"/>
@@ -2057,7 +2551,7 @@
       </c>
       <c r="J61" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21359404866802995</v>
+        <v>5.4519106660379678E-26</v>
       </c>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.25">
@@ -2066,7 +2560,7 @@
       </c>
       <c r="D62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7465819260966242</v>
+        <v>14.2606473594881</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="1"/>
@@ -2074,11 +2568,11 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6798321186528263E-2</v>
+        <v>X</v>
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
@@ -2087,7 +2581,7 @@
       </c>
       <c r="D63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0346646558063748</v>
+        <v>-9.4056926588965926</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="1"/>
@@ -2099,7 +2593,7 @@
       </c>
       <c r="J63" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1646099767123239E-4</v>
+        <v>2.4609969766549014E-20</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.25">
@@ -2108,7 +2602,7 @@
       </c>
       <c r="D64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.233563424835779</v>
+        <v>4.273134225104922</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="1"/>
@@ -2120,7 +2614,7 @@
       </c>
       <c r="J64" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2555641914180688E-24</v>
+        <v>4.325045019188794E-5</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
@@ -2129,7 +2623,7 @@
       </c>
       <c r="D65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.495522008891896</v>
+        <v>5.0339375390503172</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="1"/>
@@ -2141,7 +2635,7 @@
       </c>
       <c r="J65" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8.0614142014144094E-30</v>
+        <v>1.2544393011977567E-6</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
@@ -2150,7 +2644,7 @@
       </c>
       <c r="D66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1523687490299466</v>
+        <v>7.354317166781879</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="1"/>
@@ -2162,7 +2656,7 @@
       </c>
       <c r="J66" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4086712699912896E-9</v>
+        <v>7.1885544345233496E-13</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
@@ -2170,8 +2664,8 @@
         <v>66</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" ref="D67:D130" ca="1" si="4">(RAND()*24)-12</f>
-        <v>0.65621261625897453</v>
+        <f t="shared" ref="D67:D130" ca="1" si="4">(RAND()*30)-15</f>
+        <v>-5.2995648552657606</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F130" ca="1" si="5">IF(D67&gt;=-12,1,0)</f>
@@ -2183,7 +2677,7 @@
       </c>
       <c r="J67" s="1">
         <f t="shared" ref="J67:J130" ca="1" si="7">IF(F67*G67=1,(1/SQRT(2*3.1416))*(2.7182^(-(D67^2)/2)),"X")</f>
-        <v>0.32166626346502375</v>
+        <v>3.1800116319711092E-7</v>
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
@@ -2192,7 +2686,7 @@
       </c>
       <c r="D68" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-10.411407057233991</v>
+        <v>-4.4124240798845857</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
@@ -2204,7 +2698,7 @@
       </c>
       <c r="J68" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1572374337166537E-24</v>
+        <v>2.3620636894975972E-5</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
@@ -2213,7 +2707,7 @@
       </c>
       <c r="D69" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.0778138343885946</v>
+        <v>5.0165826757682268</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
@@ -2225,7 +2719,7 @@
       </c>
       <c r="J69" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22318292598449116</v>
+        <v>1.3687511811381809E-6</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
@@ -2234,19 +2728,19 @@
       </c>
       <c r="D70" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-9.5396189633718471</v>
+        <v>-14.139749284788296</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9209430547760258E-21</v>
+        <v>X</v>
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
@@ -2255,7 +2749,7 @@
       </c>
       <c r="D71" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-9.0836639726809221</v>
+        <v>-6.0994507480378157</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
@@ -2267,7 +2761,7 @@
       </c>
       <c r="J71" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.830468412976758E-19</v>
+        <v>3.3308795381594007E-9</v>
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
@@ -2276,7 +2770,7 @@
       </c>
       <c r="D72" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.256042695258536</v>
+        <v>-5.4223841592659046</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
@@ -2288,7 +2782,7 @@
       </c>
       <c r="J72" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18127544981788124</v>
+        <v>1.6462064471791784E-7</v>
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.25">
@@ -2297,7 +2791,7 @@
       </c>
       <c r="D73" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10.237744900811553</v>
+        <v>5.2262850132043077</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
@@ -2309,7 +2803,7 @@
       </c>
       <c r="J73" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.951585726521191E-24</v>
+        <v>4.6764512983262544E-7</v>
       </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
@@ -2318,7 +2812,7 @@
       </c>
       <c r="D74" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-9.6344478082406049</v>
+        <v>1.8024865683074935</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
@@ -2330,7 +2824,7 @@
       </c>
       <c r="J74" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7883558083652133E-21</v>
+        <v>7.860108980435053E-2</v>
       </c>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
@@ -2339,7 +2833,7 @@
       </c>
       <c r="D75" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2.9321577688922513</v>
+        <v>-8.3328178135294841</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
@@ -2351,7 +2845,7 @@
       </c>
       <c r="J75" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.4204042292692323E-3</v>
+        <v>3.3385632790937782E-16</v>
       </c>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
@@ -2360,7 +2854,7 @@
       </c>
       <c r="D76" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10.99949565643476</v>
+        <v>10.943166826799089</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
@@ -2372,7 +2866,7 @@
       </c>
       <c r="J76" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1344874611712132E-27</v>
+        <v>3.9598660431791687E-27</v>
       </c>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
@@ -2381,7 +2875,7 @@
       </c>
       <c r="D77" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.3438720471136598</v>
+        <v>3.1707433732411978</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
@@ -2393,7 +2887,7 @@
       </c>
       <c r="J77" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.2802172588343589E-10</v>
+        <v>2.6173441785898449E-3</v>
       </c>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
@@ -2402,7 +2896,7 @@
       </c>
       <c r="D78" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8961098225557862</v>
+        <v>9.2725712702451197</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
@@ -2414,7 +2908,7 @@
       </c>
       <c r="J78" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1660637805164641E-22</v>
+        <v>8.5315182324349194E-20</v>
       </c>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
@@ -2423,7 +2917,7 @@
       </c>
       <c r="D79" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9.6291688425334456</v>
+        <v>-10.551576091741945</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
@@ -2435,7 +2929,7 @@
       </c>
       <c r="J79" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9337942798471836E-21</v>
+        <v>2.6630828246012632E-25</v>
       </c>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
@@ -2444,7 +2938,7 @@
       </c>
       <c r="D80" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8.2918228778509295</v>
+        <v>-3.1946172765663956</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
@@ -2456,7 +2950,7 @@
       </c>
       <c r="J80" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.6940386825710293E-16</v>
+        <v>2.4258437847091588E-3</v>
       </c>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
@@ -2465,7 +2959,7 @@
       </c>
       <c r="D81" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8.6332729351357749</v>
+        <v>-11.509055047643493</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
@@ -2477,7 +2971,7 @@
       </c>
       <c r="J81" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6102028767614028E-17</v>
+        <v>6.8993883994040921E-30</v>
       </c>
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.25">
@@ -2486,7 +2980,7 @@
       </c>
       <c r="D82" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3222205591615541</v>
+        <v>-7.7895272501427009</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
@@ -2498,7 +2992,7 @@
       </c>
       <c r="J82" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.8195194542925477E-7</v>
+        <v>2.6639167414870248E-14</v>
       </c>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
@@ -2507,7 +3001,7 @@
       </c>
       <c r="D83" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-10.039935238842833</v>
+        <v>13.628048307369948</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="5"/>
@@ -2515,11 +3009,11 @@
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1648954239089543E-23</v>
+        <v>X</v>
       </c>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
@@ -2528,7 +3022,7 @@
       </c>
       <c r="D84" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2.719760061187781</v>
+        <v>-1.7283863133887003</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="5"/>
@@ -2540,7 +3034,7 @@
       </c>
       <c r="J84" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9.8786861329522996E-3</v>
+        <v>8.9586166536778616E-2</v>
       </c>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
@@ -2549,7 +3043,7 @@
       </c>
       <c r="D85" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9.9053218863162478</v>
+        <v>3.0971695655166158</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="5"/>
@@ -2561,7 +3055,7 @@
       </c>
       <c r="J85" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.977252617567245E-22</v>
+        <v>3.2960681911380855E-3</v>
       </c>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
@@ -2570,7 +3064,7 @@
       </c>
       <c r="D86" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-8.0952691312653897</v>
+        <v>-5.2678181103396717</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="5"/>
@@ -2582,7 +3076,7 @@
       </c>
       <c r="J86" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.3493341074872243E-15</v>
+        <v>3.7607552848357534E-7</v>
       </c>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
@@ -2591,7 +3085,7 @@
       </c>
       <c r="D87" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11535817525762937</v>
+        <v>-3.3602218022399608</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="5"/>
@@ -2603,7 +3097,7 @@
       </c>
       <c r="J87" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3962962440316789</v>
+        <v>1.4097892806699491E-3</v>
       </c>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
@@ -2612,7 +3106,7 @@
       </c>
       <c r="D88" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6765042974870354</v>
+        <v>-5.0585073645838392</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="5"/>
@@ -2624,7 +3118,7 @@
       </c>
       <c r="J88" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.6332668123414853E-4</v>
+        <v>1.1081673645153723E-6</v>
       </c>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
@@ -2633,7 +3127,7 @@
       </c>
       <c r="D89" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.2935920821663878</v>
+        <v>9.8350690862320356</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="5"/>
@@ -2645,7 +3139,7 @@
       </c>
       <c r="J89" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.8749271778356695E-2</v>
+        <v>3.9554576568445062E-22</v>
       </c>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
@@ -2654,7 +3148,7 @@
       </c>
       <c r="D90" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.5367964145012074</v>
+        <v>-8.3852009397288523</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="5"/>
@@ -2666,7 +3160,7 @@
       </c>
       <c r="J90" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.8475702503159635E-13</v>
+        <v>2.1547672150039518E-16</v>
       </c>
     </row>
     <row r="91" spans="3:10" x14ac:dyDescent="0.25">
@@ -2675,7 +3169,7 @@
       </c>
       <c r="D91" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-10.075945937565642</v>
+        <v>10.888712087481828</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="5"/>
@@ -2687,7 +3181,7 @@
       </c>
       <c r="J91" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5955691303518769E-23</v>
+        <v>7.1751017341227912E-27</v>
       </c>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
@@ -2696,7 +3190,7 @@
       </c>
       <c r="D92" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.7559005501718605</v>
+        <v>-3.3501674989877799</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="5"/>
@@ -2708,7 +3202,7 @@
       </c>
       <c r="J92" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.459625510010066E-14</v>
+        <v>1.4581570966996197E-3</v>
       </c>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
@@ -2717,19 +3211,19 @@
       </c>
       <c r="D93" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.3757454110074612</v>
+        <v>-12.784170618196848</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J93" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1175749894772858E-7</v>
+        <v>X</v>
       </c>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
@@ -2738,7 +3232,7 @@
       </c>
       <c r="D94" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.3496105073818212</v>
+        <v>-7.003032299494377</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="5"/>
@@ -2750,7 +3244,7 @@
       </c>
       <c r="J94" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.441647387042283E-13</v>
+        <v>8.9494215018790661E-12</v>
       </c>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
@@ -2759,7 +3253,7 @@
       </c>
       <c r="D95" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.1483485698737264</v>
+        <v>-1.3745459316059669</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="5"/>
@@ -2771,7 +3265,7 @@
       </c>
       <c r="J95" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2008195998909336E-12</v>
+        <v>0.15511329042419786</v>
       </c>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
@@ -2780,7 +3274,7 @@
       </c>
       <c r="D96" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0943925858144539</v>
+        <v>-1.4193669966296767</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="5"/>
@@ -2792,7 +3286,7 @@
       </c>
       <c r="J96" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3245255204363668E-3</v>
+        <v>0.14569924980075549</v>
       </c>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
@@ -2801,7 +3295,7 @@
       </c>
       <c r="D97" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.6223314088958594</v>
+        <v>-4.8777513568128832</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="5"/>
@@ -2813,7 +3307,7 @@
       </c>
       <c r="J97" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9.1515075309352179E-6</v>
+        <v>2.7201848124882897E-6</v>
       </c>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
@@ -2822,7 +3316,7 @@
       </c>
       <c r="D98" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.5851225664425801</v>
+        <v>-2.249299917267809</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="5"/>
@@ -2834,7 +3328,7 @@
       </c>
       <c r="J98" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5305762841631167E-10</v>
+        <v>3.1792063069527692E-2</v>
       </c>
     </row>
     <row r="99" spans="3:10" x14ac:dyDescent="0.25">
@@ -2843,7 +3337,7 @@
       </c>
       <c r="D99" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3172050961387392</v>
+        <v>-10.707263977795682</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="5"/>
@@ -2855,7 +3349,7 @@
       </c>
       <c r="J99" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.8957567734962123E-7</v>
+        <v>5.089845026888192E-26</v>
       </c>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
@@ -2864,7 +3358,7 @@
       </c>
       <c r="D100" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.2116727261655313</v>
+        <v>5.6610715107350984</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="5"/>
@@ -2876,7 +3370,7 @@
       </c>
       <c r="J100" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.2968761010333694E-3</v>
+        <v>4.3857387798590565E-8</v>
       </c>
     </row>
     <row r="101" spans="3:10" x14ac:dyDescent="0.25">
@@ -2885,7 +3379,7 @@
       </c>
       <c r="D101" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22037567579347872</v>
+        <v>-2.2987811235769335</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="5"/>
@@ -2897,7 +3391,7 @@
       </c>
       <c r="J101" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38937137835149727</v>
+        <v>2.8408766831687457E-2</v>
       </c>
     </row>
     <row r="102" spans="3:10" x14ac:dyDescent="0.25">
@@ -2906,7 +3400,7 @@
       </c>
       <c r="D102" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.249014096727322</v>
+        <v>11.382747204795479</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="5"/>
@@ -2918,7 +3412,7 @@
       </c>
       <c r="J102" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3228987038652548E-9</v>
+        <v>2.9285611778335813E-29</v>
       </c>
     </row>
     <row r="103" spans="3:10" x14ac:dyDescent="0.25">
@@ -2927,7 +3421,7 @@
       </c>
       <c r="D103" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.844686330734886</v>
+        <v>-4.2798748987233672</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="5"/>
@@ -2939,7 +3433,7 @@
       </c>
       <c r="J103" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9783829344099895E-3</v>
+        <v>4.2021525070722947E-5</v>
       </c>
     </row>
     <row r="104" spans="3:10" x14ac:dyDescent="0.25">
@@ -2948,7 +3442,7 @@
       </c>
       <c r="D104" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9633427116867956</v>
+        <v>-3.9296976998821584</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="5"/>
@@ -2960,7 +3454,7 @@
       </c>
       <c r="J104" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5489764814764537E-4</v>
+        <v>1.7689233771714993E-4</v>
       </c>
     </row>
     <row r="105" spans="3:10" x14ac:dyDescent="0.25">
@@ -2969,7 +3463,7 @@
       </c>
       <c r="D105" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.9514723348297727</v>
+        <v>-9.5728354249113483</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="5"/>
@@ -2981,7 +3475,7 @@
       </c>
       <c r="J105" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1242042994227283E-9</v>
+        <v>5.0386467419172782E-21</v>
       </c>
     </row>
     <row r="106" spans="3:10" x14ac:dyDescent="0.25">
@@ -2990,7 +3484,7 @@
       </c>
       <c r="D106" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-11.116440474951631</v>
+        <v>-5.1803137641104051</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="5"/>
@@ -3002,7 +3496,7 @@
       </c>
       <c r="J106" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.8572400193222347E-28</v>
+        <v>5.940150823431175E-7</v>
       </c>
     </row>
     <row r="107" spans="3:10" x14ac:dyDescent="0.25">
@@ -3011,7 +3505,7 @@
       </c>
       <c r="D107" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5.975124488320354</v>
+        <v>9.2395516350942977</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="5"/>
@@ -3023,7 +3517,7 @@
       </c>
       <c r="J107" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0554981170501778E-9</v>
+        <v>1.1581278878237471E-19</v>
       </c>
     </row>
     <row r="108" spans="3:10" x14ac:dyDescent="0.25">
@@ -3032,7 +3526,7 @@
       </c>
       <c r="D108" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1275219918535804</v>
+        <v>-4.9341519543549808</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="5"/>
@@ -3044,7 +3538,7 @@
       </c>
       <c r="J108" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7138207292978903E-12</v>
+        <v>2.0626870962905869E-6</v>
       </c>
     </row>
     <row r="109" spans="3:10" x14ac:dyDescent="0.25">
@@ -3053,7 +3547,7 @@
       </c>
       <c r="D109" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8.7663660125170679</v>
+        <v>-4.0737726727175918</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="5"/>
@@ -3065,7 +3559,7 @@
       </c>
       <c r="J109" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2002295829805536E-18</v>
+        <v>9.9385751061885209E-5</v>
       </c>
     </row>
     <row r="110" spans="3:10" x14ac:dyDescent="0.25">
@@ -3074,7 +3568,7 @@
       </c>
       <c r="D110" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45430946765169722</v>
+        <v>-11.71205307149237</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="5"/>
@@ -3086,7 +3580,7 @@
       </c>
       <c r="J110" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.35982584013730751</v>
+        <v>6.5349799857895111E-31</v>
       </c>
     </row>
     <row r="111" spans="3:10" x14ac:dyDescent="0.25">
@@ -3095,7 +3589,7 @@
       </c>
       <c r="D111" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.013764571829026</v>
+        <v>5.698378487864975</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="5"/>
@@ -3107,7 +3601,7 @@
       </c>
       <c r="J111" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2667950630645058E-4</v>
+        <v>3.548308810531507E-8</v>
       </c>
     </row>
     <row r="112" spans="3:10" x14ac:dyDescent="0.25">
@@ -3116,19 +3610,19 @@
       </c>
       <c r="D112" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.4732801742083375</v>
+        <v>-12.525263073251743</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="J112" s="1">
+      <c r="J112" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0.13477018726620077</v>
+        <v>X</v>
       </c>
     </row>
     <row r="113" spans="3:10" x14ac:dyDescent="0.25">
@@ -3137,7 +3631,7 @@
       </c>
       <c r="D113" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.8160224583103526</v>
+        <v>10.924681780585448</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="5"/>
@@ -3149,7 +3643,7 @@
       </c>
       <c r="J113" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.6688703457744876E-6</v>
+        <v>4.8467976519945185E-27</v>
       </c>
     </row>
     <row r="114" spans="3:10" x14ac:dyDescent="0.25">
@@ -3158,7 +3652,7 @@
       </c>
       <c r="D114" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0435142624043259</v>
+        <v>6.7091778280126029</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="5"/>
@@ -3170,7 +3664,7 @@
       </c>
       <c r="J114" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9447087651344923E-2</v>
+        <v>6.7102773309373431E-11</v>
       </c>
     </row>
     <row r="115" spans="3:10" x14ac:dyDescent="0.25">
@@ -3179,7 +3673,7 @@
       </c>
       <c r="D115" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-10.59747769066907</v>
+        <v>12.345280956731539</v>
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="5"/>
@@ -3187,11 +3681,11 @@
       </c>
       <c r="G115">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1.6390410217697721E-25</v>
+        <v>X</v>
       </c>
     </row>
     <row r="116" spans="3:10" x14ac:dyDescent="0.25">
@@ -3200,7 +3694,7 @@
       </c>
       <c r="D116" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.9221195259018762</v>
+        <v>7.1265659365489711</v>
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="5"/>
@@ -3212,7 +3706,7 @@
       </c>
       <c r="J116" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1886944053390951E-6</v>
+        <v>3.7392117827193678E-12</v>
       </c>
     </row>
     <row r="117" spans="3:10" x14ac:dyDescent="0.25">
@@ -3221,7 +3715,7 @@
       </c>
       <c r="D117" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-10.684532042156132</v>
+        <v>1.9666956741553001</v>
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="5"/>
@@ -3233,7 +3727,7 @@
       </c>
       <c r="J117" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4907528749672472E-26</v>
+        <v>5.7681001603435381E-2</v>
       </c>
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.25">
@@ -3242,7 +3736,7 @@
       </c>
       <c r="D118" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.39814480826205489</v>
+        <v>4.6649112160174475</v>
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="5"/>
@@ -3254,7 +3748,7 @@
       </c>
       <c r="J118" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.36854334063535749</v>
+        <v>7.5097342241602984E-6</v>
       </c>
     </row>
     <row r="119" spans="3:10" x14ac:dyDescent="0.25">
@@ -3263,19 +3757,19 @@
       </c>
       <c r="D119" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5.7239092487873293</v>
+        <v>-13.349254057945739</v>
       </c>
       <c r="F119">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="J119" s="1">
+      <c r="J119" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>3.0668949697178216E-8</v>
+        <v>X</v>
       </c>
     </row>
     <row r="120" spans="3:10" x14ac:dyDescent="0.25">
@@ -3284,7 +3778,7 @@
       </c>
       <c r="D120" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.7176711854391185</v>
+        <v>-9.0121564143632114</v>
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="5"/>
@@ -3296,7 +3790,7 @@
       </c>
       <c r="J120" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1783151099765002E-8</v>
+        <v>9.2250068450186119E-19</v>
       </c>
     </row>
     <row r="121" spans="3:10" x14ac:dyDescent="0.25">
@@ -3305,7 +3799,7 @@
       </c>
       <c r="D121" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5.569765396438946</v>
+        <v>-0.12038299660410168</v>
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="5"/>
@@ -3317,7 +3811,7 @@
       </c>
       <c r="J121" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3233267219340314E-8</v>
+        <v>0.39606160278977287</v>
       </c>
     </row>
     <row r="122" spans="3:10" x14ac:dyDescent="0.25">
@@ -3326,7 +3820,7 @@
       </c>
       <c r="D122" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.9689953716972424</v>
+        <v>12.586770475916769</v>
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="5"/>
@@ -3334,11 +3828,11 @@
       </c>
       <c r="G122">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3185303615741991E-9</v>
+        <v>X</v>
       </c>
     </row>
     <row r="123" spans="3:10" x14ac:dyDescent="0.25">
@@ -3347,7 +3841,7 @@
       </c>
       <c r="D123" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-10.496639377784309</v>
+        <v>-6.4832741211939933</v>
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="5"/>
@@ -3359,7 +3853,7 @@
       </c>
       <c r="J123" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7475414757879128E-25</v>
+        <v>2.9776137635994757E-10</v>
       </c>
     </row>
     <row r="124" spans="3:10" x14ac:dyDescent="0.25">
@@ -3368,7 +3862,7 @@
       </c>
       <c r="D124" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.407585936318398</v>
+        <v>4.9177581341455685</v>
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="5"/>
@@ -3380,7 +3874,7 @@
       </c>
       <c r="J124" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.8498629321370816E-10</v>
+        <v>2.2361649860285231E-6</v>
       </c>
     </row>
     <row r="125" spans="3:10" x14ac:dyDescent="0.25">
@@ -3389,7 +3883,7 @@
       </c>
       <c r="D125" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9.0651817029902091</v>
+        <v>-9.4311808005476436</v>
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="5"/>
@@ -3401,7 +3895,7 @@
       </c>
       <c r="J125" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.7124861072213323E-19</v>
+        <v>1.9357896285227489E-20</v>
       </c>
     </row>
     <row r="126" spans="3:10" x14ac:dyDescent="0.25">
@@ -3410,7 +3904,7 @@
       </c>
       <c r="D126" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-11.246592697802456</v>
+        <v>10.426054612102611</v>
       </c>
       <c r="F126">
         <f t="shared" ca="1" si="5"/>
@@ -3422,7 +3916,7 @@
       </c>
       <c r="J126" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3667328041606996E-28</v>
+        <v>9.9345283133905406E-25</v>
       </c>
     </row>
     <row r="127" spans="3:10" x14ac:dyDescent="0.25">
@@ -3431,7 +3925,7 @@
       </c>
       <c r="D127" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-11.084399543383316</v>
+        <v>8.315000365570608</v>
       </c>
       <c r="F127">
         <f t="shared" ca="1" si="5"/>
@@ -3443,7 +3937,7 @@
       </c>
       <c r="J127" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3589732054422631E-28</v>
+        <v>3.8722932818822415E-16</v>
       </c>
     </row>
     <row r="128" spans="3:10" x14ac:dyDescent="0.25">
@@ -3452,7 +3946,7 @@
       </c>
       <c r="D128" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5251843554673741</v>
+        <v>8.5179734975427976</v>
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="5"/>
@@ -3464,7 +3958,7 @@
       </c>
       <c r="J128" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12468080739606455</v>
+        <v>7.0157857516275945E-17</v>
       </c>
     </row>
     <row r="129" spans="3:10" x14ac:dyDescent="0.25">
@@ -3473,7 +3967,7 @@
       </c>
       <c r="D129" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9.6267175002231689</v>
+        <v>14.251415844848967</v>
       </c>
       <c r="F129">
         <f t="shared" ca="1" si="5"/>
@@ -3481,11 +3975,11 @@
       </c>
       <c r="G129">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>3.0038573175925009E-21</v>
+        <v>X</v>
       </c>
     </row>
     <row r="130" spans="3:10" x14ac:dyDescent="0.25">
@@ -3494,7 +3988,7 @@
       </c>
       <c r="D130" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3581500746043531</v>
+        <v>6.3239531293210653</v>
       </c>
       <c r="F130">
         <f t="shared" ca="1" si="5"/>
@@ -3506,7 +4000,7 @@
       </c>
       <c r="J130" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6491134119492351E-10</v>
+        <v>8.2591492938226993E-10</v>
       </c>
     </row>
     <row r="131" spans="3:10" x14ac:dyDescent="0.25">
@@ -3514,8 +4008,8 @@
         <v>130</v>
       </c>
       <c r="D131" s="4">
-        <f t="shared" ref="D131:D194" ca="1" si="8">(RAND()*24)-12</f>
-        <v>-7.6342631783886352</v>
+        <f t="shared" ref="D131:D194" ca="1" si="8">(RAND()*30)-15</f>
+        <v>7.6360479080134063</v>
       </c>
       <c r="F131">
         <f t="shared" ref="F131:F194" ca="1" si="9">IF(D131&gt;=-12,1,0)</f>
@@ -3527,7 +4021,7 @@
       </c>
       <c r="J131" s="1">
         <f t="shared" ref="J131:J194" ca="1" si="11">IF(F131*G131=1,(1/SQRT(2*3.1416))*(2.7182^(-(D131^2)/2)),"X")</f>
-        <v>8.8210570132671784E-14</v>
+        <v>8.7016740573483739E-14</v>
       </c>
     </row>
     <row r="132" spans="3:10" x14ac:dyDescent="0.25">
@@ -3536,7 +4030,7 @@
       </c>
       <c r="D132" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.7083417884603449</v>
+        <v>1.2264495394867616</v>
       </c>
       <c r="F132">
         <f t="shared" ca="1" si="9"/>
@@ -3548,7 +4042,7 @@
       </c>
       <c r="J132" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1.3645378008606993E-21</v>
+        <v>0.18805772820146935</v>
       </c>
     </row>
     <row r="133" spans="3:10" x14ac:dyDescent="0.25">
@@ -3557,7 +4051,7 @@
       </c>
       <c r="D133" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4.3650471411513792</v>
+        <v>8.4308130609224818E-2</v>
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="9"/>
@@ -3569,7 +4063,7 @@
       </c>
       <c r="J133" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2.9079672003949734E-5</v>
+        <v>0.39752656144352849</v>
       </c>
     </row>
     <row r="134" spans="3:10" x14ac:dyDescent="0.25">
@@ -3578,7 +4072,7 @@
       </c>
       <c r="D134" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.4977625463674942</v>
+        <v>-0.32301144974594287</v>
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="9"/>
@@ -3590,7 +4084,7 @@
       </c>
       <c r="J134" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1.6150344622722977E-5</v>
+        <v>0.37866387895495762</v>
       </c>
     </row>
     <row r="135" spans="3:10" x14ac:dyDescent="0.25">
@@ -3599,7 +4093,7 @@
       </c>
       <c r="D135" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.504724554771153</v>
+        <v>8.5401853978152751</v>
       </c>
       <c r="F135">
         <f t="shared" ca="1" si="9"/>
@@ -3611,7 +4105,7 @@
       </c>
       <c r="J135" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7.8532361793734949E-17</v>
+        <v>5.8050101195568877E-17</v>
       </c>
     </row>
     <row r="136" spans="3:10" x14ac:dyDescent="0.25">
@@ -3620,19 +4114,19 @@
       </c>
       <c r="D136" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3.2376864844369173</v>
+        <v>-12.07971011744328</v>
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
-      <c r="J136" s="1">
+      <c r="J136" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2.1120656978260953E-3</v>
+        <v>X</v>
       </c>
     </row>
     <row r="137" spans="3:10" x14ac:dyDescent="0.25">
@@ -3641,19 +4135,19 @@
       </c>
       <c r="D137" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6.0830113116832791</v>
+        <v>-13.680070240208233</v>
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137">
         <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
-      <c r="J137" s="1">
+      <c r="J137" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>3.6816822654449013E-9</v>
+        <v>X</v>
       </c>
     </row>
     <row r="138" spans="3:10" x14ac:dyDescent="0.25">
@@ -3662,7 +4156,7 @@
       </c>
       <c r="D138" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.5183635802231334</v>
+        <v>-7.9754923917454743</v>
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="9"/>
@@ -3674,7 +4168,7 @@
       </c>
       <c r="J138" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9.7379546440705125E-8</v>
+        <v>6.1506309175319605E-15</v>
       </c>
     </row>
     <row r="139" spans="3:10" x14ac:dyDescent="0.25">
@@ -3683,7 +4177,7 @@
       </c>
       <c r="D139" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.8062225833213148</v>
+        <v>-9.3470593487051303</v>
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="9"/>
@@ -3695,7 +4189,7 @@
       </c>
       <c r="J139" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3.4828839088659841E-11</v>
+        <v>4.2644702121993752E-20</v>
       </c>
     </row>
     <row r="140" spans="3:10" x14ac:dyDescent="0.25">
@@ -3704,7 +4198,7 @@
       </c>
       <c r="D140" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.1920381093060142</v>
+        <v>0.98725852327141439</v>
       </c>
       <c r="F140">
         <f t="shared" ca="1" si="9"/>
@@ -3716,7 +4210,7 @@
       </c>
       <c r="J140" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2.3400069223016707E-12</v>
+        <v>0.24505693009513749</v>
       </c>
     </row>
     <row r="141" spans="3:10" x14ac:dyDescent="0.25">
@@ -3725,7 +4219,7 @@
       </c>
       <c r="D141" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5685601352288607</v>
+        <v>-0.83441800694884982</v>
       </c>
       <c r="F141">
         <f t="shared" ca="1" si="9"/>
@@ -3737,7 +4231,7 @@
       </c>
       <c r="J141" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0.11658984303401028</v>
+        <v>0.28165962861740595</v>
       </c>
     </row>
     <row r="142" spans="3:10" x14ac:dyDescent="0.25">
@@ -3746,7 +4240,7 @@
       </c>
       <c r="D142" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4.9693982827687222</v>
+        <v>4.7432328540915947</v>
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="9"/>
@@ -3758,7 +4252,7 @@
       </c>
       <c r="J142" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1.7323570024718488E-6</v>
+        <v>5.1954359548400619E-6</v>
       </c>
     </row>
     <row r="143" spans="3:10" x14ac:dyDescent="0.25">
@@ -3767,7 +4261,7 @@
       </c>
       <c r="D143" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.6080761915351927</v>
+        <v>14.887582141770032</v>
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="9"/>
@@ -3775,11 +4269,11 @@
       </c>
       <c r="G143">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1.3155212960322219E-10</v>
+        <v>X</v>
       </c>
     </row>
     <row r="144" spans="3:10" x14ac:dyDescent="0.25">
@@ -3788,19 +4282,19 @@
       </c>
       <c r="D144" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.1579917141290732</v>
+        <v>-14.230516152136722</v>
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144">
         <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
-      <c r="J144" s="1">
+      <c r="J144" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2.3267348514947118E-9</v>
+        <v>X</v>
       </c>
     </row>
     <row r="145" spans="3:10" x14ac:dyDescent="0.25">
@@ -3809,7 +4303,7 @@
       </c>
       <c r="D145" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2473053807341792</v>
+        <v>4.6323107694905303</v>
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="9"/>
@@ -3821,7 +4315,7 @@
       </c>
       <c r="J145" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0.18326874677996763</v>
+        <v>8.7385328336101384E-6</v>
       </c>
     </row>
     <row r="146" spans="3:10" x14ac:dyDescent="0.25">
@@ -3830,7 +4324,7 @@
       </c>
       <c r="D146" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3.5558410172995796</v>
+        <v>-3.4772973357982337</v>
       </c>
       <c r="F146">
         <f t="shared" ca="1" si="9"/>
@@ -3842,7 +4336,7 @@
       </c>
       <c r="J146" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1677250256542533E-4</v>
+        <v>9.4478224675186885E-4</v>
       </c>
     </row>
     <row r="147" spans="3:10" x14ac:dyDescent="0.25">
@@ -3851,7 +4345,7 @@
       </c>
       <c r="D147" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.2691229521066134</v>
+        <v>-1.0902571022813881</v>
       </c>
       <c r="F147">
         <f t="shared" ca="1" si="9"/>
@@ -3863,7 +4357,7 @@
       </c>
       <c r="J147" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6646992284154426E-16</v>
+        <v>0.22019272672330201</v>
       </c>
     </row>
     <row r="148" spans="3:10" x14ac:dyDescent="0.25">
@@ -3872,7 +4366,7 @@
       </c>
       <c r="D148" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>11.880187389643403</v>
+        <v>14.206433145017169</v>
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="9"/>
@@ -3880,11 +4374,11 @@
       </c>
       <c r="G148">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>8.9933143458900665E-32</v>
+        <v>X</v>
       </c>
     </row>
     <row r="149" spans="3:10" x14ac:dyDescent="0.25">
@@ -3893,19 +4387,19 @@
       </c>
       <c r="D149" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.761730157749767</v>
+        <v>-13.621939490930856</v>
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149">
         <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
-      <c r="J149" s="1">
+      <c r="J149" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2.8365766921178821E-26</v>
+        <v>X</v>
       </c>
     </row>
     <row r="150" spans="3:10" x14ac:dyDescent="0.25">
@@ -3914,7 +4408,7 @@
       </c>
       <c r="D150" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5.1648908919976506</v>
+        <v>4.1475072004929139</v>
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="9"/>
@@ -3926,7 +4420,7 @@
       </c>
       <c r="J150" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6.4334343349502125E-7</v>
+        <v>7.3399842039698757E-5</v>
       </c>
     </row>
     <row r="151" spans="3:10" x14ac:dyDescent="0.25">
@@ -3935,7 +4429,7 @@
       </c>
       <c r="D151" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6.1108270480690621</v>
+        <v>9.7044072884439956</v>
       </c>
       <c r="F151">
         <f t="shared" ca="1" si="9"/>
@@ -3947,7 +4441,7 @@
       </c>
       <c r="J151" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3.1073944998471653E-9</v>
+        <v>1.4176553500490214E-21</v>
       </c>
     </row>
     <row r="152" spans="3:10" x14ac:dyDescent="0.25">
@@ -3956,7 +4450,7 @@
       </c>
       <c r="D152" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.2601616252662851</v>
+        <v>12.505013552462913</v>
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="9"/>
@@ -3964,11 +4458,11 @@
       </c>
       <c r="G152">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J152" s="1">
+        <v>0</v>
+      </c>
+      <c r="J152" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>3.1022947718285641E-2</v>
+        <v>X</v>
       </c>
     </row>
     <row r="153" spans="3:10" x14ac:dyDescent="0.25">
@@ -3977,7 +4471,7 @@
       </c>
       <c r="D153" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.725557845323399</v>
+        <v>5.7339394180851073</v>
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="9"/>
@@ -3989,7 +4483,7 @@
       </c>
       <c r="J153" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4.1837529704803794E-26</v>
+        <v>2.8956374828438752E-8</v>
       </c>
     </row>
     <row r="154" spans="3:10" x14ac:dyDescent="0.25">
@@ -3998,7 +4492,7 @@
       </c>
       <c r="D154" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3.5709108726433776</v>
+        <v>1.8694665582590702</v>
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="9"/>
@@ -4010,7 +4504,7 @@
       </c>
       <c r="J154" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7929843752185962E-4</v>
+        <v>6.9506173412703987E-2</v>
       </c>
     </row>
     <row r="155" spans="3:10" x14ac:dyDescent="0.25">
@@ -4019,7 +4513,7 @@
       </c>
       <c r="D155" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3.057564116452486</v>
+        <v>9.2043567762371552</v>
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="9"/>
@@ -4031,7 +4525,7 @@
       </c>
       <c r="J155" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3.7232879205850501E-3</v>
+        <v>1.6021723348969034E-19</v>
       </c>
     </row>
     <row r="156" spans="3:10" x14ac:dyDescent="0.25">
@@ -4040,7 +4534,7 @@
       </c>
       <c r="D156" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.58196817450047789</v>
+        <v>2.8781462135502416</v>
       </c>
       <c r="F156">
         <f t="shared" ca="1" si="9"/>
@@ -4052,7 +4546,7 @@
       </c>
       <c r="J156" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0.33679592944370651</v>
+        <v>6.3412597514611729E-3</v>
       </c>
     </row>
     <row r="157" spans="3:10" x14ac:dyDescent="0.25">
@@ -4061,7 +4555,7 @@
       </c>
       <c r="D157" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3053614077683644</v>
+        <v>-6.7758553931640435</v>
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="9"/>
@@ -4073,7 +4567,7 @@
       </c>
       <c r="J157" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3.766688892642066E-5</v>
+        <v>4.2805402329603893E-11</v>
       </c>
     </row>
     <row r="158" spans="3:10" x14ac:dyDescent="0.25">
@@ -4082,19 +4576,19 @@
       </c>
       <c r="D158" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5.5502272434160176</v>
+        <v>-12.791489884870757</v>
       </c>
       <c r="F158">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G158">
         <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
-      <c r="J158" s="1">
+      <c r="J158" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>8.1636672315256683E-8</v>
+        <v>X</v>
       </c>
     </row>
     <row r="159" spans="3:10" x14ac:dyDescent="0.25">
@@ -4103,7 +4597,7 @@
       </c>
       <c r="D159" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.5011302180220518</v>
+        <v>10.025342923589278</v>
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="9"/>
@@ -4115,7 +4609,7 @@
       </c>
       <c r="J159" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1.5907475984296931E-5</v>
+        <v>5.9791587479741102E-23</v>
       </c>
     </row>
     <row r="160" spans="3:10" x14ac:dyDescent="0.25">
@@ -4124,7 +4618,7 @@
       </c>
       <c r="D160" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.2976914229033376</v>
+        <v>6.9737379014260448</v>
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="9"/>
@@ -4136,7 +4630,7 @@
       </c>
       <c r="J160" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2.8480000469033713E-2</v>
+        <v>1.0982501854498887E-11</v>
       </c>
     </row>
     <row r="161" spans="3:10" x14ac:dyDescent="0.25">
@@ -4145,7 +4639,7 @@
       </c>
       <c r="D161" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.2558492872763054</v>
+        <v>-0.67062538328971399</v>
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="9"/>
@@ -4157,7 +4651,7 @@
       </c>
       <c r="J161" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6.321294227230435E-16</v>
+        <v>0.31860533534269769</v>
       </c>
     </row>
     <row r="162" spans="3:10" x14ac:dyDescent="0.25">
@@ -4166,7 +4660,7 @@
       </c>
       <c r="D162" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>0.4444152235539125</v>
+        <v>-8.2420547602847272</v>
       </c>
       <c r="F162">
         <f t="shared" ca="1" si="9"/>
@@ -4178,7 +4672,7 @@
       </c>
       <c r="J162" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0.36142917545653686</v>
+        <v>7.0830948354279884E-16</v>
       </c>
     </row>
     <row r="163" spans="3:10" x14ac:dyDescent="0.25">
@@ -4187,7 +4681,7 @@
       </c>
       <c r="D163" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9.7701603665686143</v>
+        <v>-11.397576243416381</v>
       </c>
       <c r="F163">
         <f t="shared" ca="1" si="9"/>
@@ -4199,7 +4693,7 @@
       </c>
       <c r="J163" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7.473417025607916E-22</v>
+        <v>2.4734431637531885E-29</v>
       </c>
     </row>
     <row r="164" spans="3:10" x14ac:dyDescent="0.25">
@@ -4208,7 +4702,7 @@
       </c>
       <c r="D164" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6755967913659688</v>
+        <v>12.9027877804747</v>
       </c>
       <c r="F164">
         <f t="shared" ca="1" si="9"/>
@@ -4216,11 +4710,11 @@
       </c>
       <c r="G164">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J164" s="1">
+        <v>0</v>
+      </c>
+      <c r="J164" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>8.4011686338352678E-11</v>
+        <v>X</v>
       </c>
     </row>
     <row r="165" spans="3:10" x14ac:dyDescent="0.25">
@@ -4229,7 +4723,7 @@
       </c>
       <c r="D165" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.131553547064353</v>
+        <v>-1.0352261398817468</v>
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="9"/>
@@ -4241,7 +4735,7 @@
       </c>
       <c r="J165" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4.9508822751081427E-28</v>
+        <v>0.23345401668974913</v>
       </c>
     </row>
     <row r="166" spans="3:10" x14ac:dyDescent="0.25">
@@ -4250,7 +4744,7 @@
       </c>
       <c r="D166" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.127042073509732</v>
+        <v>8.9349575873436784</v>
       </c>
       <c r="F166">
         <f t="shared" ca="1" si="9"/>
@@ -4262,7 +4756,7 @@
       </c>
       <c r="J166" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3.7265452695878096E-12</v>
+        <v>1.8442267048751619E-18</v>
       </c>
     </row>
     <row r="167" spans="3:10" x14ac:dyDescent="0.25">
@@ -4271,7 +4765,7 @@
       </c>
       <c r="D167" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.1667109351474245</v>
+        <v>9.847071924537051</v>
       </c>
       <c r="F167">
         <f t="shared" ca="1" si="9"/>
@@ -4283,7 +4777,7 @@
       </c>
       <c r="J167" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2.2050201513045382E-9</v>
+        <v>3.5147875707107262E-22</v>
       </c>
     </row>
     <row r="168" spans="3:10" x14ac:dyDescent="0.25">
@@ -4292,7 +4786,7 @@
       </c>
       <c r="D168" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.39711881612093</v>
+        <v>-10.542699972208471</v>
       </c>
       <c r="F168">
         <f t="shared" ca="1" si="9"/>
@@ -4304,7 +4798,7 @@
       </c>
       <c r="J168" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2.486371637988259E-29</v>
+        <v>2.9244290002317978E-25</v>
       </c>
     </row>
     <row r="169" spans="3:10" x14ac:dyDescent="0.25">
@@ -4313,7 +4807,7 @@
       </c>
       <c r="D169" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.0186970245876559</v>
+        <v>10.104332238150249</v>
       </c>
       <c r="F169">
         <f t="shared" ca="1" si="9"/>
@@ -4325,7 +4819,7 @@
       </c>
       <c r="J169" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1.2419476913637026E-4</v>
+        <v>2.7001010317621863E-23</v>
       </c>
     </row>
     <row r="170" spans="3:10" x14ac:dyDescent="0.25">
@@ -4334,7 +4828,7 @@
       </c>
       <c r="D170" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>11.4402724517942</v>
+        <v>4.3059969500377484</v>
       </c>
       <c r="F170">
         <f t="shared" ca="1" si="9"/>
@@ -4346,7 +4840,7 @@
       </c>
       <c r="J170" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1.5190438285380797E-29</v>
+        <v>3.7563959695563964E-5</v>
       </c>
     </row>
     <row r="171" spans="3:10" x14ac:dyDescent="0.25">
@@ -4355,7 +4849,7 @@
       </c>
       <c r="D171" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.5845987496066343</v>
+        <v>10.1382714761965</v>
       </c>
       <c r="F171">
         <f t="shared" ca="1" si="9"/>
@@ -4367,7 +4861,7 @@
       </c>
       <c r="J171" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4.501737237994424E-21</v>
+        <v>1.9151391041374746E-23</v>
       </c>
     </row>
     <row r="172" spans="3:10" x14ac:dyDescent="0.25">
@@ -4376,7 +4870,7 @@
       </c>
       <c r="D172" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6008835645594175</v>
+        <v>8.0623344988448444</v>
       </c>
       <c r="F172">
         <f t="shared" ca="1" si="9"/>
@@ -4388,7 +4882,7 @@
       </c>
       <c r="J172" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1.3795193481035027E-10</v>
+        <v>3.0654558563328407E-15</v>
       </c>
     </row>
     <row r="173" spans="3:10" x14ac:dyDescent="0.25">
@@ -4397,7 +4891,7 @@
       </c>
       <c r="D173" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.6032324940607694</v>
+        <v>-7.7350746915050514</v>
       </c>
       <c r="F173">
         <f t="shared" ca="1" si="9"/>
@@ -4409,7 +4903,7 @@
       </c>
       <c r="J173" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0.33257863646535918</v>
+        <v>4.0651958593705682E-14</v>
       </c>
     </row>
     <row r="174" spans="3:10" x14ac:dyDescent="0.25">
@@ -4418,7 +4912,7 @@
       </c>
       <c r="D174" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>10.525915752013667</v>
+        <v>-10.518002068780957</v>
       </c>
       <c r="F174">
         <f t="shared" ca="1" si="9"/>
@@ -4430,7 +4924,7 @@
       </c>
       <c r="J174" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3.4900081386098123E-25</v>
+        <v>3.7930445628942644E-25</v>
       </c>
     </row>
     <row r="175" spans="3:10" x14ac:dyDescent="0.25">
@@ -4439,7 +4933,7 @@
       </c>
       <c r="D175" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.1682784227992791</v>
+        <v>-11.232781490726516</v>
       </c>
       <c r="F175">
         <f t="shared" ca="1" si="9"/>
@@ -4451,7 +4945,7 @@
       </c>
       <c r="J175" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2.2317313039652342E-19</v>
+        <v>1.5962418937085403E-28</v>
       </c>
     </row>
     <row r="176" spans="3:10" x14ac:dyDescent="0.25">
@@ -4460,7 +4954,7 @@
       </c>
       <c r="D176" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.0321885011733194</v>
+        <v>10.723889292505667</v>
       </c>
       <c r="F176">
         <f t="shared" ca="1" si="9"/>
@@ -4472,7 +4966,7 @@
       </c>
       <c r="J176" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3.9070464758088152E-15</v>
+        <v>4.2592918436728411E-26</v>
       </c>
     </row>
     <row r="177" spans="3:10" x14ac:dyDescent="0.25">
@@ -4481,19 +4975,19 @@
       </c>
       <c r="D177" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.2982958384555463</v>
+        <v>-14.927957331187155</v>
       </c>
       <c r="F177">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177">
         <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
-      <c r="J177" s="1">
+      <c r="J177" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>3.2014668131633048E-7</v>
+        <v>X</v>
       </c>
     </row>
     <row r="178" spans="3:10" x14ac:dyDescent="0.25">
@@ -4502,7 +4996,7 @@
       </c>
       <c r="D178" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9.1289113309382728</v>
+        <v>-5.9117214162271541</v>
       </c>
       <c r="F178">
         <f t="shared" ca="1" si="9"/>
@@ -4514,7 +5008,7 @@
       </c>
       <c r="J178" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3.199262731301444E-19</v>
+        <v>1.0284389032906258E-8</v>
       </c>
     </row>
     <row r="179" spans="3:10" x14ac:dyDescent="0.25">
@@ -4523,7 +5017,7 @@
       </c>
       <c r="D179" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5.0920066090541773</v>
+        <v>-3.3584735760539211</v>
       </c>
       <c r="F179">
         <f t="shared" ca="1" si="9"/>
@@ -4535,7 +5029,7 @@
       </c>
       <c r="J179" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9.3491045108739426E-7</v>
+        <v>1.4180929410091802E-3</v>
       </c>
     </row>
     <row r="180" spans="3:10" x14ac:dyDescent="0.25">
@@ -4544,7 +5038,7 @@
       </c>
       <c r="D180" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4.4217481529187985</v>
+        <v>-4.161019610314483</v>
       </c>
       <c r="F180">
         <f t="shared" ca="1" si="9"/>
@@ -4556,7 +5050,7 @@
       </c>
       <c r="J180" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2.2667604278949126E-5</v>
+        <v>6.9393233569500266E-5</v>
       </c>
     </row>
     <row r="181" spans="3:10" x14ac:dyDescent="0.25">
@@ -4565,7 +5059,7 @@
       </c>
       <c r="D181" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1348746967037755</v>
+        <v>14.615284580922385</v>
       </c>
       <c r="F181">
         <f t="shared" ca="1" si="9"/>
@@ -4573,11 +5067,11 @@
       </c>
       <c r="G181">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J181" s="1">
+        <v>0</v>
+      </c>
+      <c r="J181" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>0.20952952782163273</v>
+        <v>X</v>
       </c>
     </row>
     <row r="182" spans="3:10" x14ac:dyDescent="0.25">
@@ -4586,7 +5080,7 @@
       </c>
       <c r="D182" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.5051246246715877</v>
+        <v>1.5812209975594449</v>
       </c>
       <c r="F182">
         <f t="shared" ca="1" si="9"/>
@@ -4598,7 +5092,7 @@
       </c>
       <c r="J182" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8.5731590019367458E-4</v>
+        <v>0.11428819541258664</v>
       </c>
     </row>
     <row r="183" spans="3:10" x14ac:dyDescent="0.25">
@@ -4607,7 +5101,7 @@
       </c>
       <c r="D183" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.5174317417875152</v>
+        <v>-2.916871604968275</v>
       </c>
       <c r="F183">
         <f t="shared" ca="1" si="9"/>
@@ -4619,7 +5113,7 @@
       </c>
       <c r="J183" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7.0482340282261629E-17</v>
+        <v>5.6682116302201949E-3</v>
       </c>
     </row>
     <row r="184" spans="3:10" x14ac:dyDescent="0.25">
@@ -4628,7 +5122,7 @@
       </c>
       <c r="D184" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4.5529736017512761</v>
+        <v>7.3754729156936563</v>
       </c>
       <c r="F184">
         <f t="shared" ca="1" si="9"/>
@@ -4640,7 +5134,7 @@
       </c>
       <c r="J184" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1.2579878113326059E-5</v>
+        <v>6.1514321182116288E-13</v>
       </c>
     </row>
     <row r="185" spans="3:10" x14ac:dyDescent="0.25">
@@ -4649,7 +5143,7 @@
       </c>
       <c r="D185" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9.7533113930334743</v>
+        <v>-6.2928010271562851</v>
       </c>
       <c r="F185">
         <f t="shared" ca="1" si="9"/>
@@ -4661,7 +5155,7 @@
       </c>
       <c r="J185" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8.8094288307565547E-22</v>
+        <v>1.0052635937901118E-9</v>
       </c>
     </row>
     <row r="186" spans="3:10" x14ac:dyDescent="0.25">
@@ -4670,7 +5164,7 @@
       </c>
       <c r="D186" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.5021234929132845</v>
+        <v>-0.83376825760567286</v>
       </c>
       <c r="F186">
         <f t="shared" ca="1" si="9"/>
@@ -4682,7 +5176,7 @@
       </c>
       <c r="J186" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0288633303376679E-17</v>
+        <v>0.28181231123885753</v>
       </c>
     </row>
     <row r="187" spans="3:10" x14ac:dyDescent="0.25">
@@ -4691,7 +5185,7 @@
       </c>
       <c r="D187" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.8745493496325754</v>
+        <v>-2.7754938427831881</v>
       </c>
       <c r="F187">
         <f t="shared" ca="1" si="9"/>
@@ -4703,7 +5197,7 @@
       </c>
       <c r="J187" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2.6805917147085161E-22</v>
+        <v>8.4760834846138878E-3</v>
       </c>
     </row>
     <row r="188" spans="3:10" x14ac:dyDescent="0.25">
@@ -4712,7 +5206,7 @@
       </c>
       <c r="D188" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.5186787582497345</v>
+        <v>9.5840534634593482</v>
       </c>
       <c r="F188">
         <f t="shared" ca="1" si="9"/>
@@ -4724,7 +5218,7 @@
       </c>
       <c r="J188" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6.9737650455937103E-17</v>
+        <v>4.5253250919445625E-21</v>
       </c>
     </row>
     <row r="189" spans="3:10" x14ac:dyDescent="0.25">
@@ -4733,7 +5227,7 @@
       </c>
       <c r="D189" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7.601219273611445</v>
+        <v>2.9756048129065817</v>
       </c>
       <c r="F189">
         <f t="shared" ca="1" si="9"/>
@@ -4745,7 +5239,7 @@
       </c>
       <c r="J189" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1.1345872752559601E-13</v>
+        <v>4.767570503100213E-3</v>
       </c>
     </row>
     <row r="190" spans="3:10" x14ac:dyDescent="0.25">
@@ -4754,7 +5248,7 @@
       </c>
       <c r="D190" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9791047947925433</v>
+        <v>-4.9365878729915948</v>
       </c>
       <c r="F190">
         <f t="shared" ca="1" si="9"/>
@@ -4766,7 +5260,7 @@
       </c>
       <c r="J190" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6.8896284371714178E-9</v>
+        <v>2.0380383474141751E-6</v>
       </c>
     </row>
     <row r="191" spans="3:10" x14ac:dyDescent="0.25">
@@ -4775,7 +5269,7 @@
       </c>
       <c r="D191" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.048542308897293</v>
+        <v>-6.8994318375946388</v>
       </c>
       <c r="F191">
         <f t="shared" ca="1" si="9"/>
@@ -4787,7 +5281,7 @@
       </c>
       <c r="J191" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1.2430295703281354E-27</v>
+        <v>1.8388363895365349E-11</v>
       </c>
     </row>
     <row r="192" spans="3:10" x14ac:dyDescent="0.25">
@@ -4796,7 +5290,7 @@
       </c>
       <c r="D192" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.4048347923741948</v>
+        <v>14.469884693325078</v>
       </c>
       <c r="F192">
         <f t="shared" ca="1" si="9"/>
@@ -4804,11 +5298,11 @@
       </c>
       <c r="G192">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J192" s="1">
+        <v>0</v>
+      </c>
+      <c r="J192" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>4.9515599357022129E-13</v>
+        <v>X</v>
       </c>
     </row>
     <row r="193" spans="3:10" x14ac:dyDescent="0.25">
@@ -4817,7 +5311,7 @@
       </c>
       <c r="D193" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>0.91060484443713818</v>
+        <v>11.689666225893276</v>
       </c>
       <c r="F193">
         <f t="shared" ca="1" si="9"/>
@@ -4829,7 +5323,7 @@
       </c>
       <c r="J193" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0.26354587885253966</v>
+        <v>8.4918487884031733E-31</v>
       </c>
     </row>
     <row r="194" spans="3:10" x14ac:dyDescent="0.25">
@@ -4838,7 +5332,7 @@
       </c>
       <c r="D194" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.085703676245112</v>
+        <v>7.4294932777842</v>
       </c>
       <c r="F194">
         <f t="shared" ca="1" si="9"/>
@@ -4850,7 +5344,7 @@
       </c>
       <c r="J194" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4.9990046615146832E-12</v>
+        <v>4.1239528793081716E-13</v>
       </c>
     </row>
     <row r="195" spans="3:10" x14ac:dyDescent="0.25">
@@ -4858,8 +5352,8 @@
         <v>194</v>
       </c>
       <c r="D195" s="4">
-        <f t="shared" ref="D195:D201" ca="1" si="12">(RAND()*24)-12</f>
-        <v>-8.1550195501103602</v>
+        <f t="shared" ref="D195:D201" ca="1" si="12">(RAND()*30)-15</f>
+        <v>8.3813298451719511</v>
       </c>
       <c r="F195">
         <f t="shared" ref="F195:F201" ca="1" si="13">IF(D195&gt;=-12,1,0)</f>
@@ -4871,7 +5365,7 @@
       </c>
       <c r="J195" s="1">
         <f t="shared" ref="J195:J201" ca="1" si="15">IF(F195*G195=1,(1/SQRT(2*3.1416))*(2.7182^(-(D195^2)/2)),"X")</f>
-        <v>1.445804286835135E-15</v>
+        <v>2.225839466864046E-16</v>
       </c>
     </row>
     <row r="196" spans="3:10" x14ac:dyDescent="0.25">
@@ -4880,7 +5374,7 @@
       </c>
       <c r="D196" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>3.4319807340573245</v>
+        <v>-10.29962137299465</v>
       </c>
       <c r="F196">
         <f t="shared" ca="1" si="13"/>
@@ -4892,7 +5386,7 @@
       </c>
       <c r="J196" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1.1048913272728815E-3</v>
+        <v>3.6825263934683565E-24</v>
       </c>
     </row>
     <row r="197" spans="3:10" x14ac:dyDescent="0.25">
@@ -4901,7 +5395,7 @@
       </c>
       <c r="D197" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>-4.8236112765407535</v>
+        <v>4.7097098707276892</v>
       </c>
       <c r="F197">
         <f t="shared" ca="1" si="13"/>
@@ -4913,7 +5407,7 @@
       </c>
       <c r="J197" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3.5371035781216395E-6</v>
+        <v>6.0874007859898251E-6</v>
       </c>
     </row>
     <row r="198" spans="3:10" x14ac:dyDescent="0.25">
@@ -4922,7 +5416,7 @@
       </c>
       <c r="D198" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>0.37142510474644475</v>
+        <v>-0.15779418821005464</v>
       </c>
       <c r="F198">
         <f t="shared" ca="1" si="13"/>
@@ -4934,7 +5428,7 @@
       </c>
       <c r="J198" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.37235189030376936</v>
+        <v>0.39400612246088351</v>
       </c>
     </row>
     <row r="199" spans="3:10" x14ac:dyDescent="0.25">
@@ -4943,7 +5437,7 @@
       </c>
       <c r="D199" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>5.6405152927337951</v>
+        <v>14.224819145091082</v>
       </c>
       <c r="F199">
         <f t="shared" ca="1" si="13"/>
@@ -4951,11 +5445,11 @@
       </c>
       <c r="G199">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="J199" s="1">
+        <v>0</v>
+      </c>
+      <c r="J199" s="1" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>4.9259321944130476E-8</v>
+        <v>X</v>
       </c>
     </row>
     <row r="200" spans="3:10" x14ac:dyDescent="0.25">
@@ -4964,7 +5458,7 @@
       </c>
       <c r="D200" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>5.053505505168026</v>
+        <v>-5.1617785595138397</v>
       </c>
       <c r="F200">
         <f t="shared" ca="1" si="13"/>
@@ -4976,7 +5470,7 @@
       </c>
       <c r="J200" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1.1365487974790947E-6</v>
+        <v>6.5376517246512884E-7</v>
       </c>
     </row>
     <row r="201" spans="3:10" x14ac:dyDescent="0.25">
@@ -4985,7 +5479,7 @@
       </c>
       <c r="D201" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>-11.986054298531617</v>
+        <v>-4.1010027248954302</v>
       </c>
       <c r="F201">
         <f t="shared" ca="1" si="13"/>
@@ -4997,7 +5491,7 @@
       </c>
       <c r="J201" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2.5426246239937761E-32</v>
+        <v>8.8917797924536587E-5</v>
       </c>
     </row>
     <row r="202" spans="3:10" x14ac:dyDescent="0.25">
@@ -7199,73 +7693,1112 @@
     <row r="751" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D751" s="4"/>
       <c r="J751" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:W1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E0D242-B20E-4429-B8F0-78840F17B21E}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.3989422804014327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="19">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A558D8DE-5CB4-448C-8787-A28C0F54129A}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1.01335506209082</v>
+      </c>
+      <c r="F9" s="17">
+        <v>3.6589784257752558</v>
+      </c>
+      <c r="G9" s="17">
+        <v>13.191167050130279</v>
+      </c>
+      <c r="H9" s="17">
+        <v>-1.0809894866324495E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B9A1D3-E19F-4F22-8196-AD045B6B580B}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.3989422804014327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="19">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD70774-655E-4ABE-B625-C06347D59B6C}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>-1.148939609148663</v>
+      </c>
+      <c r="F9" s="17">
+        <v>4.1501571390979217</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1.6959633719114738E-2</v>
+      </c>
+      <c r="H9" s="17">
+        <v>-14.961487362143345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4981A-5E82-4157-B565-37C57767FC98}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.3989422804014327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="19">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115AB452-B3A7-461D-B98F-E610E7C8C556}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1.002387961632712</v>
+      </c>
+      <c r="F9" s="17">
+        <v>3.5423609473975985</v>
+      </c>
+      <c r="G9" s="17">
+        <v>12.790649667284754</v>
+      </c>
+      <c r="H9" s="17">
+        <v>-1.1420452598821504E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BA1B53-FE59-4E2D-BD2C-35FDF97ABEFB}">
   <dimension ref="A1:W751"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="7"/>
-    <col min="17" max="20" width="12.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" style="7" customWidth="1"/>
-    <col min="22" max="23" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="22" max="23" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3">
-        <f>(1/SQRT(2*3.1416))*(2.7182^(-(F3^2)/2))</f>
-        <v>0.39894181395195566</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="14">
+        <f>(1/SQRT((2*PI())))*EXP(-(F3^2)/2)</f>
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="F3" s="15">
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="W3" s="9"/>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="28">
+        <v>0</v>
+      </c>
+      <c r="K3" s="29">
+        <f>(1/SQRT((2*PI())))*EXP(-(L3^2)/2)</f>
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -7275,20 +8808,32 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-15</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="W4" s="9"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="28">
+        <v>0</v>
+      </c>
+      <c r="K4" s="29">
+        <f>(1/SQRT((2*PI())))*EXP(-(L4^2)/2)</f>
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>1</v>
@@ -7298,70 +8843,87 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="W5" s="9"/>
+        <v>-15</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="27">
+        <v>0</v>
+      </c>
+      <c r="K5" s="30">
+        <f>(1/SQRT((2*PI())))*EXP(-(L5^2)/2)</f>
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
       <c r="J6" s="1"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="W6" s="9"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="J7" s="1"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="W7" s="9"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
+      <c r="E8" s="11"/>
       <c r="J8" s="1"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="W8" s="9"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
+      <c r="E9" s="11"/>
       <c r="J9" s="1"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
+      <c r="E10" s="11"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
+      <c r="E11" s="11"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
+      <c r="E12" s="11"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -7371,85 +8933,85 @@
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
       <c r="J14" s="1"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
       <c r="J15" s="1"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="8"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
       <c r="J16" s="1"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="8"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
       <c r="J17" s="1"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
     </row>
     <row r="18" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="J18" s="1"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
     </row>
     <row r="19" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
       <c r="J19" s="1"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
     </row>
     <row r="20" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
       <c r="J20" s="1"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
     </row>
     <row r="21" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D21" s="4"/>
@@ -10374,6 +11936,85 @@
     <row r="751" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D751" s="4"/>
       <c r="J751" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D413E676-0C44-4BAB-A5E5-E54BD7C6A519}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="14">
+        <f>(1/SQRT((2*PI())))*EXP(-(F3^2)/2)</f>
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>F3</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>F3</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
